--- a/automation_report.xlsx
+++ b/automation_report.xlsx
@@ -462,7 +462,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-10 18:04:54</t>
+          <t>2024-12-11 11:47:22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-10 18:04:55</t>
+          <t>2024-12-11 11:47:23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-10 18:04:55</t>
+          <t>2024-12-11 11:47:23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -669,7 +669,7 @@
     <col width="78" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="371" customWidth="1" min="5" max="5"/>
+    <col width="763" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -702,7 +702,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-10 18:07:41</t>
+          <t>2024-12-11 11:50:27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -723,8 +723,8 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>Found 2 broken links out of 264 total links
-URL: https://www.facebook.com/StaysTravel | Text: 'No link text' | Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)
-URL: https://www.facebook.com/StaysTravel | Text: 'No link text' | Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)</t>
+URL: https://www.facebook.com/StaysTravel | Text: 'No link text' | Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7c94a4ed7560&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))
+URL: https://www.facebook.com/StaysTravel | Text: 'No link text' | Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7c94a4e95b80&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-10 18:08:12</t>
+          <t>2024-12-11 11:50:58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
